--- a/data/trans_dic/P2A_senso_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2A_senso_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad sensorial</t>
+          <t>Hogares con personas con limitación por discapacidad sensorial</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,9</t>
+          <t>0,52; 2,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,71</t>
+          <t>0,67; 3,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,68</t>
+          <t>0,18; 1,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,53</t>
+          <t>0,96; 3,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,18</t>
+          <t>0,94; 4,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,92</t>
+          <t>1,41; 6,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,29</t>
+          <t>0,0; 1,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,27</t>
+          <t>1,21; 3,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,72</t>
+          <t>0,87; 2,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,96</t>
+          <t>1,31; 4,03</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,15</t>
+          <t>0,12; 1,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,92</t>
+          <t>1,32; 2,94</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,69</t>
+          <t>0,81; 3,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,98</t>
+          <t>0,21; 1,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,24</t>
+          <t>0,26; 2,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,81</t>
+          <t>1,44; 4,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,23</t>
+          <t>0,25; 2,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,1</t>
+          <t>0,56; 3,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,34</t>
+          <t>0,76; 3,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,78</t>
+          <t>1,12; 4,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,29</t>
+          <t>0,66; 2,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,84</t>
+          <t>0,41; 1,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,16</t>
+          <t>0,63; 2,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,81</t>
+          <t>1,65; 3,87</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,94</t>
+          <t>0,34; 2,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,63</t>
+          <t>0,95; 3,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,66</t>
+          <t>0,31; 2,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,64</t>
+          <t>0,46; 3,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,71</t>
+          <t>0,55; 5,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,54</t>
+          <t>0,78; 4,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,5</t>
+          <t>0,0; 6,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 10,27</t>
+          <t>1,85; 9,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,34</t>
+          <t>0,5; 2,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,31</t>
+          <t>1,27; 3,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,48</t>
+          <t>0,47; 2,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,17</t>
+          <t>0,89; 4,27</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,58</t>
+          <t>1,09; 2,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,01</t>
+          <t>1,29; 3,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,02</t>
+          <t>0,48; 1,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,45</t>
+          <t>1,48; 3,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,61</t>
+          <t>0,71; 2,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,85</t>
+          <t>1,5; 4,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,15</t>
+          <t>0,59; 2,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,0; 58,59</t>
+          <t>1,96; 60,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,28</t>
+          <t>1,1; 2,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,92</t>
+          <t>1,59; 3,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,66</t>
+          <t>0,64; 1,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 40,49</t>
+          <t>2,07; 37,63</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,73</t>
+          <t>1,05; 4,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,42</t>
+          <t>0,4; 2,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,96</t>
+          <t>0,68; 2,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,83</t>
+          <t>1,71; 5,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,4</t>
+          <t>0,57; 2,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,17</t>
+          <t>1,09; 3,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,33</t>
+          <t>0,63; 2,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,3</t>
+          <t>2,89; 5,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,71</t>
+          <t>0,94; 2,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,4</t>
+          <t>0,99; 2,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,16</t>
+          <t>0,82; 2,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 4,78</t>
+          <t>2,85; 4,72</t>
         </is>
       </c>
     </row>
@@ -1429,57 +1430,57 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,11</t>
+          <t>0,4; 5,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,33</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,06; 1,85</t>
+          <t>0,07; 1,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,93</t>
+          <t>1,36; 2,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,13</t>
+          <t>1,29; 3,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,68</t>
+          <t>0,47; 1,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,14</t>
+          <t>2,3; 4,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,53</t>
+          <t>1,15; 2,55</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,92</t>
+          <t>1,36; 2,93</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,45</t>
+          <t>0,47; 1,53</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,77; 3,34</t>
+          <t>1,85; 3,43</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,01</t>
+          <t>1,21; 2,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,21</t>
+          <t>1,24; 2,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,47</t>
+          <t>0,69; 1,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,88</t>
+          <t>1,64; 2,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,14</t>
+          <t>1,31; 2,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,67</t>
+          <t>1,67; 2,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,52</t>
+          <t>0,74; 1,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,78; 26,56</t>
+          <t>2,78; 25,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,35; 1,96</t>
+          <t>1,27; 1,91</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,28</t>
+          <t>1,56; 2,25</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,33</t>
+          <t>0,81; 1,33</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,47; 16,36</t>
+          <t>2,48; 14,97</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con limitación por discapacidad sensorial</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6204</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7958</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2628</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10018</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6678</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10001</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9310</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>12881</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>17959</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3572</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>19328</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2480; 13643</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2930; 15805</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>783; 7817</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4874; 17101</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2882; 12530</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4424; 19857</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4833</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5412; 15187</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6786; 21368</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>9845; 30300</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>940; 8386</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12528; 28018</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6808</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2858</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3093</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12493</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3066</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4158</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5951</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8220</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9874</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9045</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>20713</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2975; 13342</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>859; 8053</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>964; 9004</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6533; 22153</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>926; 9463</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1881; 11540</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2812; 12048</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4297; 15501</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4891; 17766</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3134; 14181</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4713; 16070</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>13767; 32308</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5055</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12565</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5862</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13403</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3154</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5946</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2101</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6961</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8210</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>18511</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7964</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>20365</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1854; 11055</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5998; 20913</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1628; 13840</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3078; 25041</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>931; 9302</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2036; 12111</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10063</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3092; 16599</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3576; 15599</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11286; 29901</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3213; 18230</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7472; 35633</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>21913</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22933</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11516</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>23896</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10540</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>18594</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>222245</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>32453</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>41528</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>20938</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>246141</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13559; 32157</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14902; 35419</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5550; 20827</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15296; 34791</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5050; 18256</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>11473; 31132</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4876; 17617</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>19122; 590596</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>21409; 43737</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>30564; 57712</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>12728; 32485</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>41729; 757435</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8266</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9456</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>14243</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>14497</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>9080</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>34369</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>15559</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19774</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>18536</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>48612</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3666; 16130</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2043; 11480</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4211; 17655</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8103; 24995</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3228; 13932</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8301; 24676</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4685; 16837</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>24313; 45145</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8600; 24554</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>12617; 31914</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>11122; 29857</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>37532; 62150</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2468</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1896</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1368</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>25288</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>22707</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>10223</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>23647</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>27756</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>27869</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>12119</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>25016</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8394</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1057; 13358</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6484</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>157; 4212</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>16984; 37185</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>14311; 34568</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>5112; 19655</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>17486; 31861</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>17737; 39514</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>18660; 40363</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>6396; 20946</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>18520; 34318</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>50714</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>56752</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>34452</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>75422</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>56019</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>75904</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>37722</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>304753</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>106733</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>132656</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>72174</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>380175</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>39581; 68772</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>42414; 73441</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>23487; 48859</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>55439; 96217</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>44180; 73082</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>59273; 94783</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>26279; 51295</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>99391; 910690</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>84652; 126934</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>108943; 156620</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>56144; 91710</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>172232; 1041230</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P2A_senso_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2A_senso_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
